--- a/Controle de Obras/123210500-Bens de Uso Comum do Povo (2017).xlsx
+++ b/Controle de Obras/123210500-Bens de Uso Comum do Povo (2017).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K778"/>
+  <dimension ref="A1:L778"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>Conta Contábil</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>N° Conta Contábil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +547,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -595,6 +605,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -640,12 +655,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>90.890,00</t>
+          <t>-90.890,00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -701,6 +721,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -754,6 +779,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -807,6 +837,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -852,12 +887,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>157.164,05</t>
+          <t>-157.164,05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -913,6 +953,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -966,6 +1011,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,6 +1069,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1072,6 +1127,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1125,6 +1185,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1178,6 +1243,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1231,6 +1301,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1284,6 +1359,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1337,6 +1417,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1390,6 +1475,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1443,6 +1533,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1496,6 +1591,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1549,6 +1649,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1602,6 +1707,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1655,6 +1765,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1708,6 +1823,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1761,6 +1881,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1814,6 +1939,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1867,6 +1997,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1920,6 +2055,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1973,6 +2113,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2026,6 +2171,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2079,6 +2229,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2132,6 +2287,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2185,6 +2345,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2238,6 +2403,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2291,6 +2461,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2344,6 +2519,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2397,6 +2577,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2450,6 +2635,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2503,6 +2693,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2557,6 +2752,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2610,6 +2810,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2663,6 +2868,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2716,6 +2926,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2769,6 +2984,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2822,6 +3042,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2875,6 +3100,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2928,6 +3158,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2981,6 +3216,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3034,6 +3274,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3087,6 +3332,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3140,6 +3390,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3193,6 +3448,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3246,6 +3506,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3299,6 +3564,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3352,6 +3622,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3405,6 +3680,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3458,6 +3738,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3511,6 +3796,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3564,6 +3854,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3617,6 +3912,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3670,6 +3970,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3723,6 +4028,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3768,12 +4078,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>229.274,40</t>
+          <t>-229.274,40</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -3829,6 +4144,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3874,12 +4194,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>229.274,40</t>
+          <t>-229.274,40</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -3935,6 +4260,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3988,6 +4318,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4033,12 +4368,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>188.815,20</t>
+          <t>-188.815,20</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -4094,6 +4434,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4147,6 +4492,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4200,6 +4550,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4245,12 +4600,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>950,00</t>
+          <t>-950,00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -4306,6 +4666,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4351,12 +4716,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>33.460,80</t>
+          <t>-33.460,80</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -4412,6 +4782,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4465,6 +4840,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4518,6 +4898,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4571,6 +4956,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4624,6 +5014,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4677,6 +5072,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4730,6 +5130,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4783,6 +5188,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4836,6 +5246,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4889,6 +5304,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4942,6 +5362,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4995,6 +5420,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5048,6 +5478,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5101,6 +5536,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5154,6 +5594,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5207,6 +5652,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5260,6 +5710,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5305,12 +5760,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>491.904,00</t>
+          <t>-491.904,00</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -5366,6 +5826,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5411,12 +5876,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>40.459,20</t>
+          <t>-40.459,20</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -5464,12 +5934,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>188.815,20</t>
+          <t>-188.815,20</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -5525,6 +6000,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5578,6 +6058,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5631,6 +6116,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5684,6 +6174,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5737,6 +6232,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5790,6 +6290,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5843,6 +6348,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5896,6 +6406,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5949,6 +6464,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6002,6 +6522,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6047,12 +6572,17 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>50.990,00</t>
+          <t>-50.990,00</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -6108,6 +6638,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6161,6 +6696,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6214,6 +6754,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6267,6 +6812,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6320,6 +6870,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6373,6 +6928,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6426,6 +6986,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6479,6 +7044,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6532,6 +7102,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6585,6 +7160,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6638,6 +7218,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6691,6 +7276,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6744,6 +7334,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6797,6 +7392,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6850,6 +7450,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6903,6 +7508,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6956,6 +7566,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7001,12 +7616,17 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>330.717,60</t>
+          <t>-330.717,60</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -7062,6 +7682,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7115,6 +7740,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7168,6 +7798,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7221,6 +7856,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7274,6 +7914,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7327,6 +7972,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7380,6 +8030,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7433,6 +8088,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7486,6 +8146,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7537,6 +8202,11 @@
       <c r="K134" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -7572,12 +8242,17 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>109.362,50</t>
+          <t>-109.362,50</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -7633,6 +8308,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7686,6 +8366,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7739,6 +8424,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7792,6 +8482,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7845,6 +8540,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7890,12 +8590,17 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>1.118.362,43</t>
+          <t>-1.118.362,43</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -7951,6 +8656,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8004,6 +8714,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8057,6 +8772,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8110,6 +8830,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8155,12 +8880,17 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>7.207,20</t>
+          <t>-7.207,20</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -8216,6 +8946,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8261,12 +8996,17 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>332.915,36</t>
+          <t>-332.915,36</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -8314,12 +9054,17 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>920.133,60</t>
+          <t>-920.133,60</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -8375,6 +9120,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8420,12 +9170,17 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>226.393,20</t>
+          <t>-226.393,20</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -8481,6 +9236,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8526,12 +9286,17 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>272.002,09</t>
+          <t>-272.002,09</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -8587,6 +9352,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8640,6 +9410,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8693,6 +9468,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8746,6 +9526,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8791,12 +9576,17 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>742.206,28</t>
+          <t>-742.206,28</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -8852,6 +9642,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8905,6 +9700,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8958,6 +9758,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9011,6 +9816,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9064,6 +9874,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9117,6 +9932,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9170,6 +9990,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9223,6 +10048,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9276,6 +10106,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9329,6 +10164,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9382,6 +10222,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9427,12 +10272,17 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>24.030,80</t>
+          <t>-24.030,80</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -9488,6 +10338,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9533,12 +10388,17 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>195.673,20</t>
+          <t>-195.673,20</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -9594,6 +10454,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9639,12 +10504,17 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>23.180,00</t>
+          <t>-23.180,00</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -9700,6 +10570,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9753,6 +10628,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9806,6 +10686,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9859,6 +10744,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9912,6 +10802,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9965,6 +10860,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10018,6 +10918,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10071,6 +10976,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10124,6 +11034,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10177,6 +11092,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10230,6 +11150,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10283,6 +11208,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10336,6 +11266,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10389,6 +11324,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10442,6 +11382,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10495,6 +11440,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10548,6 +11498,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10601,6 +11556,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10654,6 +11614,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10699,12 +11664,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>70.631,30</t>
+          <t>-70.631,30</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -10760,6 +11730,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10813,6 +11788,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10866,6 +11846,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10919,6 +11904,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10972,6 +11962,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11025,6 +12020,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11078,6 +12078,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11131,6 +12136,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11184,6 +12194,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11229,12 +12244,17 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>263.844,72</t>
+          <t>-263.844,72</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -11290,6 +12310,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11343,6 +12368,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11388,12 +12418,17 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>169.042,32</t>
+          <t>-169.042,32</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -11447,6 +12482,11 @@
       <c r="K208" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -11482,12 +12522,17 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>40.459,20</t>
+          <t>-40.459,20</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -11544,6 +12589,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11598,6 +12648,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11651,6 +12706,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11704,6 +12764,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11757,6 +12822,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11810,6 +12880,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11863,6 +12938,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11916,6 +12996,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11969,6 +13054,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12022,6 +13112,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12067,12 +13162,17 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>117.590,06</t>
+          <t>-117.590,06</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -12128,6 +13228,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12181,6 +13286,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12234,6 +13344,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12287,6 +13402,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12340,6 +13460,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12393,6 +13518,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12446,6 +13576,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12499,6 +13634,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12552,6 +13692,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12605,6 +13750,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12658,6 +13808,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12711,6 +13866,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12756,12 +13916,17 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>882.291,66</t>
+          <t>-882.291,66</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -12817,6 +13982,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12870,6 +14040,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12923,6 +14098,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12976,6 +14156,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13029,6 +14214,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13082,6 +14272,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13135,6 +14330,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13188,6 +14388,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13233,12 +14438,17 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>96.288,48</t>
+          <t>-96.288,48</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -13294,6 +14504,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13347,6 +14562,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13400,6 +14620,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13453,6 +14678,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13506,6 +14736,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13559,6 +14794,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13612,6 +14852,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13665,6 +14910,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13718,6 +14968,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13771,6 +15026,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13824,6 +15084,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13877,6 +15142,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13930,6 +15200,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13975,12 +15250,17 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.208.390,00</t>
+          <t>-1.208.390,00</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -14036,6 +15316,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14089,6 +15374,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14142,6 +15432,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14195,6 +15490,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14248,6 +15548,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14301,6 +15606,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14354,6 +15664,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14407,6 +15722,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14460,6 +15780,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14513,6 +15838,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14566,6 +15896,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14619,6 +15954,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14672,6 +16012,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14725,6 +16070,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14776,6 +16126,11 @@
       <c r="K271" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -14811,12 +16166,17 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>18.356,50</t>
+          <t>-18.356,50</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -14872,6 +16232,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14917,12 +16282,17 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>737.017,65</t>
+          <t>-737.017,65</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -14978,6 +16348,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15031,6 +16406,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15084,6 +16464,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15137,6 +16522,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15190,6 +16580,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15243,6 +16638,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15296,6 +16696,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15349,6 +16754,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15402,6 +16812,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15455,6 +16870,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15508,6 +16928,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15561,6 +16986,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15614,6 +17044,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15667,6 +17102,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15720,6 +17160,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15773,6 +17218,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15826,6 +17276,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15879,6 +17334,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15932,6 +17392,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15977,12 +17442,17 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>213.840,00</t>
+          <t>-213.840,00</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -16038,6 +17508,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16091,6 +17566,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16144,6 +17624,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16197,6 +17682,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16250,6 +17740,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16295,12 +17790,17 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>280.332,00</t>
+          <t>-280.332,00</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
         </is>
       </c>
     </row>
@@ -16356,6 +17856,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16409,6 +17914,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16462,6 +17972,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16515,6 +18030,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16568,6 +18088,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16621,6 +18146,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16674,6 +18204,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16727,6 +18262,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16780,6 +18320,11 @@
           <t xml:space="preserve"> 123210502-Ruas (@)</t>
         </is>
       </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210502</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16833,6 +18378,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16886,6 +18436,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16939,6 +18494,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16992,6 +18552,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17045,6 +18610,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17098,6 +18668,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17151,6 +18726,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17204,6 +18784,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17257,6 +18842,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17310,6 +18900,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17363,6 +18958,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17416,6 +19016,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17469,6 +19074,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17522,6 +19132,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17575,6 +19190,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17628,6 +19248,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -17681,6 +19306,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -17734,6 +19364,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -17787,6 +19422,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -17840,6 +19480,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -17893,6 +19538,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -17946,6 +19596,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -17999,6 +19654,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18052,6 +19712,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18105,6 +19770,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18150,12 +19820,17 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>389.427,50</t>
+          <t>-389.427,50</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
         </is>
       </c>
     </row>
@@ -18211,6 +19886,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18264,6 +19944,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18317,6 +20002,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18370,6 +20060,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18423,6 +20118,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18476,6 +20176,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18529,6 +20234,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18582,6 +20292,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -18635,6 +20350,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -18688,6 +20408,11 @@
           <t xml:space="preserve"> 123210503-Infraestrutura : massa asfalta (@)</t>
         </is>
       </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210503</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -18741,6 +20466,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -18794,6 +20524,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -18847,6 +20582,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -18900,6 +20640,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -18953,6 +20698,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19006,6 +20756,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19051,12 +20806,17 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>375.300,00</t>
+          <t>-375.300,00</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -19112,6 +20872,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19165,6 +20930,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19218,6 +20988,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19271,6 +21046,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19324,6 +21104,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19377,6 +21162,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19430,6 +21220,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19475,12 +21270,17 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>27.670,50</t>
+          <t>-27.670,50</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -19536,6 +21336,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19589,6 +21394,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -19642,6 +21452,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -19695,6 +21510,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -19748,6 +21568,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -19801,6 +21626,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -19854,6 +21684,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -19907,6 +21742,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -19960,6 +21800,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20013,6 +21858,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20066,6 +21916,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20111,12 +21966,17 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>30.850,00</t>
+          <t>-30.850,00</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -20172,6 +22032,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20225,6 +22090,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20278,6 +22148,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -20331,6 +22206,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20376,12 +22256,17 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>61.700,00</t>
+          <t>-61.700,00</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -20437,6 +22322,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20482,12 +22372,17 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>61.700,00</t>
+          <t>-61.700,00</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -20543,6 +22438,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -20596,6 +22496,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -20649,6 +22554,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -20702,6 +22612,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -20755,6 +22670,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -20808,6 +22728,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -20853,12 +22778,17 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>186.000,00</t>
+          <t>-186.000,00</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -20914,6 +22844,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -20967,6 +22902,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21020,6 +22960,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21065,12 +23010,17 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>375.300,00</t>
+          <t>-375.300,00</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -21126,6 +23076,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21179,6 +23134,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21232,6 +23192,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21277,12 +23242,17 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>27.090,00</t>
+          <t>-27.090,00</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -21338,6 +23308,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21391,6 +23366,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21444,6 +23424,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21497,6 +23482,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21550,6 +23540,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -21603,6 +23598,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -21656,6 +23656,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -21709,6 +23714,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -21762,6 +23772,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -21815,6 +23830,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -21868,6 +23888,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -21921,6 +23946,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -21974,6 +24004,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22027,6 +24062,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22080,6 +24120,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -22133,6 +24178,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22186,6 +24236,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22239,6 +24294,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22292,6 +24352,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22345,6 +24410,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22398,6 +24468,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22451,6 +24526,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22504,6 +24584,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -22557,6 +24642,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -22610,6 +24700,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -22663,6 +24758,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -22716,6 +24816,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -22769,6 +24874,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -22822,6 +24932,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -22875,6 +24990,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -22928,6 +25048,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -22981,6 +25106,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -23034,6 +25164,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23079,12 +25214,17 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>182.160,00</t>
+          <t>-182.160,00</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -23140,6 +25280,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23193,6 +25338,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23246,6 +25396,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23299,6 +25454,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -23352,6 +25512,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23405,6 +25570,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -23458,6 +25628,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23503,12 +25678,17 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>308.500,00</t>
+          <t>-308.500,00</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -23564,6 +25744,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -23617,6 +25802,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -23670,6 +25860,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -23715,12 +25910,17 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>54.180,00</t>
+          <t>-54.180,00</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -23776,6 +25976,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -23829,6 +26034,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -23882,6 +26092,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -23935,6 +26150,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -23988,6 +26208,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -24033,12 +26258,17 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>379.655,00</t>
+          <t>-379.655,00</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -24094,6 +26324,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -24147,6 +26382,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -24200,6 +26440,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -24253,6 +26498,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -24306,6 +26556,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24359,6 +26614,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -24404,12 +26664,17 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>54.180,00</t>
+          <t>-54.180,00</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -24465,6 +26730,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -24518,6 +26788,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -24572,6 +26847,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -24625,6 +26905,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -24678,6 +26963,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -24731,6 +27021,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -24784,6 +27079,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -24837,6 +27137,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -24890,6 +27195,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -24943,6 +27253,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -24996,6 +27311,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -25049,6 +27369,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -25102,6 +27427,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -25155,6 +27485,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -25208,6 +27543,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -25261,6 +27601,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -25314,6 +27659,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -25367,6 +27717,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -25412,12 +27767,17 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>199.500,00</t>
+          <t>-199.500,00</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -25473,6 +27833,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -25526,6 +27891,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -25579,6 +27949,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -25624,12 +27999,17 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>144.378,00</t>
+          <t>-144.378,00</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -25685,6 +28065,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -25738,6 +28123,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -25791,6 +28181,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -25844,6 +28239,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -25897,6 +28297,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -25950,6 +28355,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -26003,6 +28413,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -26056,6 +28471,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -26109,6 +28529,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -26162,6 +28587,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -26215,6 +28645,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -26268,6 +28703,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -26321,6 +28761,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -26374,6 +28819,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -26427,6 +28877,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -26480,6 +28935,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -26533,6 +28993,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -26586,6 +29051,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -26639,6 +29109,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -26692,6 +29167,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -26745,6 +29225,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -26798,6 +29283,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -26851,6 +29341,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -26904,6 +29399,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -26957,6 +29457,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -27010,6 +29515,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -27063,6 +29573,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -27116,6 +29631,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -27169,6 +29689,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -27222,6 +29747,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -27275,6 +29805,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -27328,6 +29863,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -27381,6 +29921,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -27434,6 +29979,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -27487,6 +30037,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -27540,6 +30095,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -27593,6 +30153,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -27646,6 +30211,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -27699,6 +30269,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -27752,6 +30327,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -27797,12 +30377,17 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>137.481,75</t>
+          <t>-137.481,75</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -27858,6 +30443,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -27911,6 +30501,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -27964,6 +30559,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -28009,12 +30609,17 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>520.559,00</t>
+          <t>-520.559,00</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -28070,6 +30675,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -28123,6 +30733,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -28176,6 +30791,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -28229,6 +30849,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -28282,6 +30907,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -28335,6 +30965,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -28388,6 +31023,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -28441,6 +31081,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -28494,6 +31139,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -28547,6 +31197,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -28600,6 +31255,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -28653,6 +31313,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -28698,12 +31363,17 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>137.481,75</t>
+          <t>-137.481,75</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -28759,6 +31429,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -28812,6 +31487,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -28865,6 +31545,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -28918,6 +31603,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -28971,6 +31661,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -29016,12 +31711,17 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>80.600,00</t>
+          <t>-80.600,00</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
         </is>
       </c>
     </row>
@@ -29077,6 +31777,11 @@
           <t xml:space="preserve"> 123210504-Sistema De Drenagem (@)</t>
         </is>
       </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210504</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -29130,6 +31835,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -29183,6 +31893,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -29236,6 +31951,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -29289,6 +32009,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -29342,6 +32067,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -29395,6 +32125,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -29448,6 +32183,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -29501,6 +32241,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -29554,6 +32299,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -29607,6 +32357,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -29660,6 +32415,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -29713,6 +32473,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -29766,6 +32531,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -29819,6 +32589,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -29872,6 +32647,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -29925,6 +32705,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -29978,6 +32763,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -30031,6 +32821,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -30084,6 +32879,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -30129,12 +32929,17 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>959.560,00</t>
+          <t>-959.560,00</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -30190,6 +32995,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -30243,6 +33053,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -30296,6 +33111,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -30349,6 +33169,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -30402,6 +33227,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -30455,6 +33285,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -30508,6 +33343,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -30561,6 +33401,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -30614,6 +33459,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -30667,6 +33517,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -30720,6 +33575,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -30773,6 +33633,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -30826,6 +33691,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -30879,6 +33749,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -30932,6 +33807,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -30985,6 +33865,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -31030,12 +33915,17 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>1.163.615,35</t>
+          <t>-1.163.615,35</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -31091,6 +33981,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -31144,6 +34039,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -31197,6 +34097,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -31250,6 +34155,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -31303,6 +34213,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -31356,6 +34271,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -31409,6 +34329,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -31462,6 +34387,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -31515,6 +34445,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -31568,6 +34503,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -31621,6 +34561,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -31666,12 +34611,17 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>2.577.375,80</t>
+          <t>-2.577.375,80</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -31727,6 +34677,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -31780,6 +34735,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -31833,6 +34793,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -31886,6 +34851,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -31939,6 +34909,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -31992,6 +34967,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -32045,6 +35025,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -32098,6 +35083,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -32151,6 +35141,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -32204,6 +35199,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -32257,6 +35257,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -32310,6 +35315,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -32363,6 +35373,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -32416,6 +35431,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -32469,6 +35489,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -32522,6 +35547,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -32575,6 +35605,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -32628,6 +35663,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -32681,6 +35721,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -32726,12 +35771,17 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>656.717,50</t>
+          <t>-656.717,50</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -32787,6 +35837,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -32840,6 +35895,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -32893,6 +35953,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -32946,6 +36011,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -32999,6 +36069,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -33052,6 +36127,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -33105,6 +36185,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -33158,6 +36243,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -33211,6 +36301,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -33264,6 +36359,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -33309,12 +36409,17 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>555.397,50</t>
+          <t>-555.397,50</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -33370,6 +36475,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -33423,6 +36533,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -33468,12 +36583,17 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>197.268,90</t>
+          <t>-197.268,90</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -33529,6 +36649,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -33582,6 +36707,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -33635,6 +36765,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -33688,6 +36823,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -33741,6 +36881,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -33794,6 +36939,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -33847,6 +36997,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -33900,6 +37055,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -33953,6 +37113,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -34006,6 +37171,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -34059,6 +37229,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -34112,6 +37287,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -34165,6 +37345,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -34218,6 +37403,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -34271,6 +37461,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -34324,6 +37519,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -34377,6 +37577,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -34430,6 +37635,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -34483,6 +37693,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -34536,6 +37751,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -34589,6 +37809,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -34642,6 +37867,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -34695,6 +37925,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -34748,6 +37983,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -34801,6 +38041,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -34854,6 +38099,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -34907,6 +38157,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -34960,6 +38215,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -35013,6 +38273,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -35066,6 +38331,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -35119,6 +38389,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -35172,6 +38447,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -35225,6 +38505,11 @@
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
         </is>
       </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -35276,6 +38561,11 @@
       <c r="K658" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210506-Infraestrutura : serv. de usinagem de concreto betuminoso (@)</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210506</t>
         </is>
       </c>
     </row>
@@ -35319,6 +38609,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -35352,12 +38647,17 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>55.044.092,92</t>
+          <t>-55.044.092,92</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35413,6 +38713,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -35466,6 +38771,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -35519,6 +38829,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -35570,6 +38885,11 @@
       <c r="K664" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35613,6 +38933,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -35654,6 +38979,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -35683,12 +39013,17 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>344.301,85</t>
+          <t>-344.301,85</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35728,6 +39063,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -35757,12 +39097,17 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>344.301,85</t>
+          <t>-344.301,85</t>
         </is>
       </c>
       <c r="K669" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35794,12 +39139,17 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>175.171,77</t>
+          <t>-175.171,77</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35855,6 +39205,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -35906,6 +39261,11 @@
       <c r="K672" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35937,12 +39297,17 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>67.656,35</t>
+          <t>-67.656,35</t>
         </is>
       </c>
       <c r="K673" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -35982,6 +39347,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -36035,6 +39405,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -36088,6 +39463,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -36133,12 +39513,17 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>528.500,67</t>
+          <t>-528.500,67</t>
         </is>
       </c>
       <c r="K677" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -36186,12 +39571,17 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>558.171,78</t>
+          <t>-558.171,78</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -36245,6 +39635,11 @@
       <c r="K679" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -36288,6 +39683,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -36317,12 +39717,17 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>3.236.949,62</t>
+          <t>-3.236.949,62</t>
         </is>
       </c>
       <c r="K681" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -36354,12 +39759,17 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>67.656,35</t>
+          <t>-67.656,35</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -36415,6 +39825,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -36468,6 +39883,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -36521,6 +39941,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -36574,6 +39999,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -36619,12 +40049,17 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>1.038.865,28</t>
+          <t>-1.038.865,28</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -36680,6 +40115,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -36733,6 +40173,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -36786,6 +40231,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -36839,6 +40289,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -36892,6 +40347,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -36945,6 +40405,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -36998,6 +40463,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -37051,6 +40521,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -37104,6 +40579,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -37149,12 +40629,17 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>108.034,73</t>
+          <t>-108.034,73</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -37210,6 +40695,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -37263,6 +40753,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -37316,6 +40811,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -37361,12 +40861,17 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>1.152,75</t>
+          <t>-1.152,75</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -37414,12 +40919,17 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>106.881,98</t>
+          <t>-106.881,98</t>
         </is>
       </c>
       <c r="K702" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -37459,6 +40969,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -37496,6 +41011,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -37533,6 +41053,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -37570,6 +41095,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -37607,6 +41137,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -37644,6 +41179,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -37681,6 +41221,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -37718,6 +41263,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -37755,6 +41305,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -37792,6 +41347,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -37829,6 +41389,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -37866,6 +41431,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -37903,6 +41473,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -37940,6 +41515,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -37977,6 +41557,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -38014,6 +41599,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -38051,6 +41641,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -38088,6 +41683,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -38125,6 +41725,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -38162,6 +41767,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -38199,6 +41809,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -38236,6 +41851,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -38273,6 +41893,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -38326,6 +41951,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -38379,6 +42009,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -38424,12 +42059,17 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>214.878,75</t>
+          <t>-214.878,75</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -38485,6 +42125,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -38538,6 +42183,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -38591,6 +42241,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -38644,6 +42299,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -38697,6 +42357,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -38750,6 +42415,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -38803,6 +42473,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -38856,6 +42531,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -38909,6 +42589,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -38962,6 +42647,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -39015,6 +42705,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -39060,12 +42755,17 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>961.343,80</t>
+          <t>-961.343,80</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -39113,12 +42813,17 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>1.832.024,00</t>
+          <t>-1.832.024,00</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -39166,12 +42871,17 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>1.000.000,00</t>
+          <t>-1.000.000,00</t>
         </is>
       </c>
       <c r="K742" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -39227,6 +42937,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -39280,6 +42995,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -39333,6 +43053,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -39378,12 +43103,17 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>1.841.026,48</t>
+          <t>-1.841.026,48</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -39431,12 +43161,17 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>938.924,09</t>
+          <t>-938.924,09</t>
         </is>
       </c>
       <c r="K747" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -39492,6 +43227,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -39545,6 +43285,11 @@
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
         </is>
       </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
+        </is>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -39596,6 +43341,11 @@
       <c r="K750" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210517-Obras de Infraestrutura de revitalização,urbanização. (@)</t>
+        </is>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210517</t>
         </is>
       </c>
     </row>
@@ -39635,6 +43385,11 @@
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
         </is>
       </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
+        </is>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -39664,12 +43419,17 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>-0,20</t>
         </is>
       </c>
       <c r="K752" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
+        </is>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
         </is>
       </c>
     </row>
@@ -39709,6 +43469,11 @@
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
         </is>
       </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
+        </is>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -39738,12 +43503,17 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>-0,10</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
+        </is>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
         </is>
       </c>
     </row>
@@ -39783,6 +43553,11 @@
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
         </is>
       </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
+        </is>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -39812,12 +43587,17 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>-0,10</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
         </is>
       </c>
     </row>
@@ -39857,6 +43637,11 @@
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
         </is>
       </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
+        </is>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -39898,6 +43683,11 @@
           <t xml:space="preserve"> 123210519-Obras de Urbanização e Consrvação do Sistema Viário (@)</t>
         </is>
       </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210519</t>
+        </is>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -39935,6 +43725,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -39972,6 +43767,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -40009,6 +43809,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -40046,6 +43851,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -40083,6 +43893,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -40120,6 +43935,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -40157,6 +43977,11 @@
           <t xml:space="preserve"> 123210523-Praças (@)</t>
         </is>
       </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210523</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -40198,6 +44023,11 @@
           <t xml:space="preserve"> 123210580-Estudos e Projetos P/ Infraestrutura, Revitalização, Urbanização (@)</t>
         </is>
       </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210580</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -40231,12 +44061,17 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>232.192,89</t>
+          <t>-232.192,89</t>
         </is>
       </c>
       <c r="K767" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210580-Estudos e Projetos P/ Infraestrutura, Revitalização, Urbanização (@)</t>
+        </is>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210580</t>
         </is>
       </c>
     </row>
@@ -40280,6 +44115,11 @@
           <t xml:space="preserve"> 123210580-Estudos e Projetos P/ Infraestrutura, Revitalização, Urbanização (@)</t>
         </is>
       </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210580</t>
+        </is>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -40321,6 +44161,11 @@
           <t xml:space="preserve"> 123210580-Estudos e Projetos P/ Infraestrutura, Revitalização, Urbanização (@)</t>
         </is>
       </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210580</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -40358,6 +44203,11 @@
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
         </is>
       </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
+        </is>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -40409,6 +44259,11 @@
       <c r="K771" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
+        </is>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
         </is>
       </c>
     </row>
@@ -40452,6 +44307,11 @@
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
         </is>
       </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -40489,6 +44349,11 @@
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
         </is>
       </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
+        </is>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -40530,6 +44395,11 @@
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
         </is>
       </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
+        </is>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -40583,6 +44453,11 @@
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
         </is>
       </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -40628,12 +44503,17 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>89.300,00</t>
+          <t>-89.300,00</t>
         </is>
       </c>
       <c r="K776" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
+        </is>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
         </is>
       </c>
     </row>
@@ -40689,6 +44569,11 @@
           <t xml:space="preserve"> 123210594-Unidades Esportivas Comunitárias (@)</t>
         </is>
       </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210594</t>
+        </is>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -40740,6 +44625,11 @@
       <c r="K778" t="inlineStr">
         <is>
           <t xml:space="preserve"> 123210598-Obras de Infra estrutura de exercicio anteriores (@)</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 123210598</t>
         </is>
       </c>
     </row>
